--- a/posesiones/1381271.xlsx
+++ b/posesiones/1381271.xlsx
@@ -1952,10 +1952,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>18</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2634,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17">
         <v>19</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2734,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R19">
         <v>8</v>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21">
         <v>8</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R23">
         <v>11</v>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R25">
         <v>8</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R32">
         <v>17</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R34">
         <v>4</v>
@@ -3534,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R35">
         <v>9</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3734,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R39">
         <v>21</v>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R44">
         <v>25</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4078,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R46">
         <v>4</v>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4178,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R48">
         <v>11</v>
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R49">
         <v>15</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4334,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R51">
         <v>10</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4437,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R53">
         <v>13</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4540,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R55">
         <v>15</v>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4640,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R57">
         <v>14</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4837,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R61">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4937,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R63">
         <v>18</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5040,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R65">
         <v>14</v>
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R66">
         <v>24</v>
@@ -5146,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R67">
         <v>7</v>
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5249,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R69">
         <v>6</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5396,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R73">
         <v>15</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5549,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R75">
         <v>20</v>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R77">
         <v>11</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5749,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R79">
         <v>21</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5946,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R83">
         <v>12</v>
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6049,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R85">
         <v>9</v>
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6337,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R91">
         <v>15</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6434,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R93">
         <v>17</v>
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6537,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R95">
         <v>10</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6734,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R99">
         <v>25</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R100">
         <v>5</v>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6937,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R103">
         <v>31</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7175,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7269,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7366,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R112">
         <v>2</v>
@@ -7419,7 +7419,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R113">
         <v>12</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7519,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R115">
         <v>11</v>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7622,7 +7622,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R117">
         <v>17</v>
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R119">
         <v>12</v>
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R121">
         <v>18</v>
@@ -7875,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7922,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7969,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8113,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R127">
         <v>20</v>
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8257,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8354,7 +8354,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R132">
         <v>1</v>
@@ -8398,10 +8398,10 @@
         <v>1</v>
       </c>
       <c r="P133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q133">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8636,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8683,7 +8683,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8818,10 +8818,10 @@
         <v>1</v>
       </c>
       <c r="P142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q142">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8871,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R143">
         <v>12</v>
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8968,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9065,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R147">
         <v>19</v>
@@ -9118,7 +9118,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R148">
         <v>16</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9218,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R150">
         <v>9</v>
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9321,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R152">
         <v>9</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9424,7 +9424,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R154">
         <v>16</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9524,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R156">
         <v>17</v>
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9627,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R158">
         <v>11</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9727,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R160">
         <v>15</v>
@@ -9780,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9830,7 +9830,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R162">
         <v>8</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9924,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10018,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10118,7 +10118,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R168">
         <v>14</v>
@@ -10168,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10218,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10268,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R171">
         <v>25</v>
@@ -10321,7 +10321,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R172">
         <v>8</v>
@@ -10371,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R174">
         <v>28</v>
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10621,7 +10621,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R178">
         <v>12</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10762,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10812,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R182">
         <v>11</v>
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10956,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R187">
         <v>14</v>
@@ -11103,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11244,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11338,7 +11338,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11388,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R194">
         <v>16</v>
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11491,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R196">
         <v>10</v>
@@ -11541,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11588,7 +11588,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11635,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11732,7 +11732,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R201">
         <v>23</v>
@@ -11782,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R205">
         <v>11</v>
@@ -11979,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12029,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R207">
         <v>17</v>
@@ -12082,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12176,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12273,7 +12273,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R212">
         <v>7</v>
@@ -12326,7 +12326,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12376,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R214">
         <v>10</v>
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12476,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R216">
         <v>16</v>
@@ -12526,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12573,7 +12573,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12620,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12667,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12761,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12811,7 +12811,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R223">
         <v>21</v>
@@ -12861,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12911,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R225">
         <v>6</v>
@@ -12964,7 +12964,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R226">
         <v>18</v>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13067,7 +13067,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R228">
         <v>6</v>
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13161,7 +13161,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13208,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13255,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13305,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R233">
         <v>24</v>
@@ -13355,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13405,7 +13405,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R235">
         <v>14</v>
@@ -13455,7 +13455,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13505,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13555,7 +13555,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R238">
         <v>26</v>
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13655,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R240">
         <v>15</v>
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13849,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13896,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13990,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14040,7 +14040,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R248">
         <v>26</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14140,7 +14140,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14187,7 +14187,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14234,7 +14234,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14284,7 +14284,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R253">
         <v>5</v>
@@ -14334,7 +14334,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14384,7 +14384,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14434,7 +14434,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R256">
         <v>16</v>
@@ -14484,7 +14484,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14534,7 +14534,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R258">
         <v>16</v>
@@ -14584,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14631,7 +14631,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14684,7 +14684,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R261">
         <v>11</v>
@@ -14734,7 +14734,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14781,7 +14781,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14831,7 +14831,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R264">
         <v>0</v>
@@ -14881,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14931,7 +14931,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14981,7 +14981,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R267">
         <v>12</v>
@@ -15031,7 +15031,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15078,7 +15078,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15125,7 +15125,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15175,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="R271">
         <v>17</v>
@@ -15228,7 +15228,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15278,7 +15278,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="R273">
         <v>11</v>
@@ -15328,7 +15328,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15369,10 +15369,10 @@
         <v>1</v>
       </c>
       <c r="P275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q275">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15419,7 +15419,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15466,7 +15466,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15513,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15560,7 +15560,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15607,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15654,7 +15654,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15695,10 +15695,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q282">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15748,7 +15748,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R283">
         <v>7</v>
@@ -15798,7 +15798,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15848,7 +15848,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R285">
         <v>15</v>
@@ -15898,7 +15898,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15948,7 +15948,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R287">
         <v>28</v>
@@ -16001,7 +16001,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16051,7 +16051,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R289">
         <v>22</v>
@@ -16104,7 +16104,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16154,7 +16154,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R291">
         <v>11</v>
@@ -16204,7 +16204,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16254,7 +16254,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R293">
         <v>14</v>
@@ -16307,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16354,7 +16354,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16401,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16451,7 +16451,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R297">
         <v>23</v>
@@ -16501,7 +16501,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16548,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16598,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16645,7 +16645,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16692,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16739,7 +16739,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16789,7 +16789,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R304">
         <v>22</v>
@@ -16842,7 +16842,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R305">
         <v>12</v>
@@ -16895,7 +16895,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R306">
         <v>24</v>
@@ -16945,7 +16945,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16995,7 +16995,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R308">
         <v>7</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R309">
         <v>19</v>
@@ -17101,7 +17101,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17151,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R311">
         <v>8</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17251,7 +17251,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R313">
         <v>10</v>
@@ -17304,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17354,7 +17354,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R315">
         <v>15</v>
@@ -17404,7 +17404,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17454,7 +17454,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R317">
         <v>6</v>
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17554,7 +17554,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17601,7 +17601,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17651,7 +17651,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R321">
         <v>7</v>
@@ -17704,7 +17704,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17754,7 +17754,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R323">
         <v>8</v>
@@ -17804,7 +17804,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17854,7 +17854,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R325">
         <v>17</v>
@@ -17907,7 +17907,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17957,7 +17957,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R327">
         <v>11</v>
@@ -18007,7 +18007,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18057,7 +18057,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R329">
         <v>0</v>
@@ -18110,7 +18110,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18157,7 +18157,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18204,7 +18204,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18251,7 +18251,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18301,7 +18301,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R334">
         <v>25</v>
@@ -18348,7 +18348,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18395,7 +18395,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18442,7 +18442,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18492,7 +18492,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R338">
         <v>19</v>
@@ -18542,7 +18542,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18592,7 +18592,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R340">
         <v>19</v>
@@ -18642,7 +18642,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18692,7 +18692,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R342">
         <v>16</v>
@@ -18742,7 +18742,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18792,7 +18792,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R344">
         <v>21</v>
@@ -18842,7 +18842,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18889,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18986,7 +18986,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R348">
         <v>27</v>
@@ -19039,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19086,7 +19086,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19133,7 +19133,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19180,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19227,7 +19227,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19274,7 +19274,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19321,7 +19321,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19371,7 +19371,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R356">
         <v>20</v>
@@ -19421,7 +19421,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19471,7 +19471,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R358">
         <v>11</v>
@@ -19524,7 +19524,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R359">
         <v>17</v>
@@ -19574,7 +19574,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19621,7 +19621,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19668,7 +19668,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19715,7 +19715,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19765,7 +19765,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19815,7 +19815,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R365">
         <v>7</v>
@@ -19868,7 +19868,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R366">
         <v>15</v>
@@ -19918,7 +19918,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19965,7 +19965,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -20012,7 +20012,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20062,7 +20062,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R370">
         <v>0</v>
@@ -20115,7 +20115,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20162,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20209,7 +20209,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20256,7 +20256,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20303,7 +20303,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20353,7 +20353,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R376">
         <v>16</v>
@@ -20406,7 +20406,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R377">
         <v>21</v>
@@ -20456,7 +20456,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20506,7 +20506,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R379">
         <v>14</v>
@@ -20556,7 +20556,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20606,7 +20606,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R381">
         <v>11</v>
@@ -20656,7 +20656,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20750,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20797,7 +20797,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20847,7 +20847,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R386">
         <v>18</v>
@@ -20897,7 +20897,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20944,7 +20944,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20991,7 +20991,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21038,7 +21038,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21088,7 +21088,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R391">
         <v>21</v>
@@ -21138,7 +21138,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21185,7 +21185,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21235,7 +21235,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R394">
         <v>12</v>
@@ -21288,7 +21288,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R395">
         <v>3</v>
@@ -21332,10 +21332,10 @@
         <v>1</v>
       </c>
       <c r="P396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q396">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21382,7 +21382,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21429,7 +21429,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21476,7 +21476,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21523,7 +21523,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21570,7 +21570,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21617,7 +21617,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21664,7 +21664,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21714,7 +21714,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="R404">
         <v>-600</v>
@@ -21764,7 +21764,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21811,7 +21811,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21852,10 +21852,10 @@
         <v>1</v>
       </c>
       <c r="P407" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q407">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21905,7 +21905,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R408">
         <v>14</v>
@@ -21958,7 +21958,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R409">
         <v>10</v>
@@ -22008,7 +22008,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22058,7 +22058,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R411">
         <v>15</v>
@@ -22111,7 +22111,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22158,7 +22158,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22208,7 +22208,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22258,7 +22258,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R415">
         <v>24</v>
@@ -22311,7 +22311,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R416">
         <v>13</v>
@@ -22361,7 +22361,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22411,7 +22411,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R418">
         <v>20</v>
@@ -22461,7 +22461,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22511,7 +22511,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R420">
         <v>17</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22608,7 +22608,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22658,7 +22658,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22708,7 +22708,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R424">
         <v>24</v>
@@ -22761,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22808,7 +22808,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22855,7 +22855,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22902,7 +22902,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22949,7 +22949,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22999,7 +22999,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R430">
         <v>18</v>
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23099,7 +23099,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R432">
         <v>16</v>
@@ -23152,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23246,7 +23246,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23293,7 +23293,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23340,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23437,7 +23437,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23487,7 +23487,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R440">
         <v>44</v>
@@ -23540,7 +23540,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R441">
         <v>10</v>
@@ -23593,7 +23593,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23643,7 +23643,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R443">
         <v>3</v>
@@ -23693,7 +23693,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23743,7 +23743,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R445">
         <v>5</v>
@@ -23796,7 +23796,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23843,7 +23843,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24081,7 +24081,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R452">
         <v>10</v>
@@ -24128,7 +24128,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24222,7 +24222,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24272,7 +24272,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R456">
         <v>13</v>
@@ -24325,7 +24325,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24419,7 +24419,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24469,7 +24469,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R460">
         <v>17</v>
@@ -24522,7 +24522,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24572,7 +24572,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R462">
         <v>11</v>
@@ -24622,7 +24622,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24716,7 +24716,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24763,7 +24763,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24810,7 +24810,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24857,7 +24857,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24954,7 +24954,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -25004,7 +25004,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R471">
         <v>39</v>
@@ -25054,7 +25054,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25104,7 +25104,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R473">
         <v>12</v>
@@ -25157,7 +25157,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R474">
         <v>20</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25257,7 +25257,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25307,7 +25307,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25357,7 +25357,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R478">
         <v>10</v>
@@ -25407,7 +25407,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25454,7 +25454,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25501,7 +25501,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25548,7 +25548,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25595,7 +25595,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25645,7 +25645,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R484">
         <v>20</v>
@@ -25698,7 +25698,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25745,7 +25745,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25842,7 +25842,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R488">
         <v>25</v>
@@ -25895,7 +25895,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25945,7 +25945,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R490">
         <v>4</v>
@@ -25995,7 +25995,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26045,7 +26045,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R492">
         <v>18</v>
@@ -26095,7 +26095,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26142,7 +26142,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26189,7 +26189,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26236,7 +26236,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26283,7 +26283,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26333,7 +26333,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R498">
         <v>10</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26430,7 +26430,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26477,7 +26477,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26524,7 +26524,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26574,7 +26574,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R503">
         <v>2</v>
@@ -26624,7 +26624,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26671,7 +26671,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26765,7 +26765,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26812,7 +26812,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26859,7 +26859,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26906,7 +26906,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26956,7 +26956,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -27006,7 +27006,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R512">
         <v>33</v>
@@ -27056,7 +27056,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27103,7 +27103,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27153,7 +27153,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R515">
         <v>14</v>
@@ -27203,7 +27203,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27250,7 +27250,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27297,7 +27297,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27344,7 +27344,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27394,7 +27394,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R520">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>1</v>
       </c>
       <c r="Q521">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R521">
         <v>8</v>
@@ -27497,7 +27497,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27544,7 +27544,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27594,7 +27594,7 @@
         <v>1</v>
       </c>
       <c r="Q524">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R524">
         <v>19</v>
@@ -27647,7 +27647,7 @@
         <v>1</v>
       </c>
       <c r="Q525">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R525">
         <v>17</v>
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27747,7 +27747,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27797,7 +27797,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27847,7 +27847,7 @@
         <v>1</v>
       </c>
       <c r="Q529">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R529">
         <v>19</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27944,7 +27944,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27991,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -28041,7 +28041,7 @@
         <v>1</v>
       </c>
       <c r="Q533">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R533">
         <v>0</v>
@@ -28091,7 +28091,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -28144,7 +28144,7 @@
         <v>1</v>
       </c>
       <c r="Q535">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R535">
         <v>8</v>
@@ -28197,7 +28197,7 @@
         <v>1</v>
       </c>
       <c r="Q536">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R536">
         <v>0</v>
@@ -28247,7 +28247,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28294,7 +28294,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28341,7 +28341,7 @@
         <v>1</v>
       </c>
       <c r="Q539">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R539">
         <v>16</v>
@@ -28385,10 +28385,10 @@
         <v>1</v>
       </c>
       <c r="P540" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q540">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="541" spans="1:18">
@@ -28429,7 +28429,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
